--- a/output/NewsTest3.xlsx
+++ b/output/NewsTest3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>DATE</t>
   </si>
@@ -67,6 +67,57 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>ni Liberal Party President at Senador Mar Roxas</t>
+  </si>
+  <si>
+    <t>Arroyo Ad­ministrasyon</t>
+  </si>
+  <si>
+    <t>Arroyo</t>
+  </si>
+  <si>
+    <t>Ayon</t>
+  </si>
+  <si>
+    <t>Charter Change</t>
+  </si>
+  <si>
+    <t>Gayunman,</t>
+  </si>
+  <si>
+    <t>Gloria Forever Constitutionâ?</t>
+  </si>
+  <si>
+    <t>Glo­ria Forever Constitution</t>
+  </si>
+  <si>
+    <t>Ilonggong</t>
+  </si>
+  <si>
+    <t>Ito</t>
+  </si>
+  <si>
+    <t>Konstitus­yon</t>
+  </si>
+  <si>
+    <t>Mas</t>
+  </si>
+  <si>
+    <t>Napunit</t>
+  </si>
+  <si>
+    <t>Pangu­lo</t>
+  </si>
+  <si>
+    <t>Pilipino</t>
+  </si>
+  <si>
+    <t>Punit-punit</t>
+  </si>
+  <si>
+    <t>Walang</t>
   </si>
 </sst>
 </file>
@@ -874,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,15 +955,15 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -929,10 +980,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -943,7 +994,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -954,7 +1005,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -965,7 +1016,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -976,7 +1027,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -986,8 +1037,134 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
